--- a/summary_metrics_only.xlsx
+++ b/summary_metrics_only.xlsx
@@ -490,16 +490,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="C2" t="n">
-        <v>0.064</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0065</v>
+        <v>0.0069</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0675</v>
+        <v>0.0764</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -529,16 +529,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.24</v>
+        <v>0.29</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0064</v>
+        <v>0.0076</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0616</v>
+        <v>0.0735</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -568,16 +568,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06</v>
+        <v>0.064</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0065</v>
+        <v>0.0066</v>
       </c>
       <c r="E4" t="n">
-        <v>0.06320000000000001</v>
+        <v>0.0572</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06</v>
+        <v>0.0767</v>
       </c>
       <c r="H2" t="n">
-        <v>0.004</v>
+        <v>0.0053</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0659</v>
+        <v>0.0842</v>
       </c>
     </row>
     <row r="3">
@@ -732,16 +732,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0767</v>
+        <v>0.0833</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0059</v>
+        <v>0.0061</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0764</v>
+        <v>0.08169999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -774,13 +774,13 @@
         <v>0.17</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0567</v>
+        <v>0.0633</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0043</v>
+        <v>0.0044</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0518</v>
+        <v>0.06469999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -856,16 +856,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="C2" t="n">
         <v>0.06</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0136</v>
+        <v>0.0165</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0629</v>
+        <v>0.061</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -1059,16 +1059,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0567</v>
+        <v>0.0667</v>
       </c>
       <c r="H2" t="n">
-        <v>0.008699999999999999</v>
+        <v>0.012</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0548</v>
+        <v>0.0635</v>
       </c>
     </row>
     <row r="3">
@@ -1098,16 +1098,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0667</v>
+        <v>0.0567</v>
       </c>
       <c r="H3" t="n">
-        <v>0.008399999999999999</v>
+        <v>0.0105</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0589</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="4">
@@ -1137,16 +1137,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0533</v>
+        <v>0.0633</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0068</v>
+        <v>0.0092</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05</v>
+        <v>0.0682</v>
       </c>
     </row>
   </sheetData>
